--- a/Cleaned Data/Sex.xlsx
+++ b/Cleaned Data/Sex.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{792B444A-AC11-FD47-99C2-BC294294D797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B6BAD6-C39F-7845-AC6B-FB1C18B16CC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1540" windowWidth="19320" windowHeight="17440" xr2:uid="{11600211-A5F1-7846-B45A-10DC5B9D2086}"/>
+    <workbookView xWindow="1600" yWindow="1540" windowWidth="25000" windowHeight="17440" xr2:uid="{11600211-A5F1-7846-B45A-10DC5B9D2086}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Sex</t>
   </si>
@@ -122,6 +122,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF4B8CE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -131,6 +136,985 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>COVID-19 Risk Level Based on Sex per Capita in the USA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Risk Level</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F4B8CE"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-469D-9E44-B46F-6E6C0C81ECA0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$2:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>99.999580800000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.248277999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-469D-9E44-B46F-6E6C0C81ECA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="771180400"/>
+        <c:axId val="805086576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="771180400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>SEX</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="805086576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="805086576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>RISK LEVEL</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771180400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6390B5FB-FE70-7346-8E6E-87BE07972470}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80254C2A-FDA2-2D43-8B62-B3BA2FEA16F8}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,7 +1429,7 @@
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,13 +1443,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -479,16 +1466,19 @@
         <f>161991900/2415307</f>
         <v>67.068865365769241</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
         <f>67.0688 * 1.491</f>
         <v>99.999580800000004</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>100/67.0688</f>
         <v>1.4910062502982013</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -502,12 +1492,16 @@
         <f>155030700/2589964</f>
         <v>59.8582451339092</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
         <f>59.858 * 1.491</f>
         <v>89.248277999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cleaned Data/Sex.xlsx
+++ b/Cleaned Data/Sex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B6BAD6-C39F-7845-AC6B-FB1C18B16CC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E7C518-F6CD-9044-9F93-307C20B34A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="1540" windowWidth="25000" windowHeight="17440" xr2:uid="{11600211-A5F1-7846-B45A-10DC5B9D2086}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Sex</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Risk * num.</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -274,6 +277,60 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$E$2:$E$3</c:f>
@@ -295,10 +352,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>99.999580800000004</c:v>
+                  <c:v>52.840457095207533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.248277999999999</c:v>
+                  <c:v>47.159542904792474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,14 +1139,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1414,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80254C2A-FDA2-2D43-8B62-B3BA2FEA16F8}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1486,7 @@
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,8 +1508,11 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1470,15 +1530,19 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <f>67.0688 * 1.491</f>
-        <v>99.999580800000004</v>
+        <f>D2*G2</f>
+        <v>52.840457095207533</v>
       </c>
       <c r="G2">
-        <f>100/67.0688</f>
-        <v>1.4910062502982013</v>
+        <f>50/H2</f>
+        <v>0.78785375012734848</v>
+      </c>
+      <c r="H2">
+        <f>SUM(D2:D3)/2</f>
+        <v>63.463555249839217</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1496,8 +1560,8 @@
         <v>6</v>
       </c>
       <c r="F3" s="1">
-        <f>59.858 * 1.491</f>
-        <v>89.248277999999999</v>
+        <f>D3*G2</f>
+        <v>47.159542904792474</v>
       </c>
     </row>
   </sheetData>
